--- a/biology/Botanique/Callistephus_chinensis/Callistephus_chinensis.xlsx
+++ b/biology/Botanique/Callistephus_chinensis/Callistephus_chinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callistephus chinensis
-L'Aster de Chine ou Reine-Marguerite (Callistephus chinensis) est une espèce de plantes à fleurs appartenant à la famille des Asteraceae (Composées). Il s'agit de la seule espèce du genre Callistephus. Il en existe plusieurs cultivars aux fleurs de différentes couleurs. Elles se rencontrent à l'état sauvage en Chine, au Japon et au Canada[1].
+L'Aster de Chine ou Reine-Marguerite (Callistephus chinensis) est une espèce de plantes à fleurs appartenant à la famille des Asteraceae (Composées). Il s'agit de la seule espèce du genre Callistephus. Il en existe plusieurs cultivars aux fleurs de différentes couleurs. Elles se rencontrent à l'état sauvage en Chine, au Japon et au Canada.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Asters de Chine sont des plantes herbacées. Ils se divisent en des centaines de cultivars[1]. À l'état sauvage, elles sont de couleur pourpre. Des cultivars aux fleurs d'autres couleurs ont été obtenus notamment par hybridation[1]. L'« Aster de Chine » atteint une hauteur entre 20 et 60 cm. Sa période de floraison s'étend de la mi-août à la fin de l'automne. Ses feuilles sont dentelées et ont une longueur de 8 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Asters de Chine sont des plantes herbacées. Ils se divisent en des centaines de cultivars. À l'état sauvage, elles sont de couleur pourpre. Des cultivars aux fleurs d'autres couleurs ont été obtenus notamment par hybridation. L'« Aster de Chine » atteint une hauteur entre 20 et 60 cm. Sa période de floraison s'étend de la mi-août à la fin de l'automne. Ses feuilles sont dentelées et ont une longueur de 8 cm.
 			Vue d'ensemble.
 			Port général.
 			Jeune plant.
@@ -551,9 +565,11 @@
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, la Reine-Marguerite symbolise l'estime ou la confiance[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, la Reine-Marguerite symbolise l'estime ou la confiance.
 </t>
         </is>
       </c>
